--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H2">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I2">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J2">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.460132666666667</v>
+        <v>1.349272</v>
       </c>
       <c r="N2">
-        <v>10.380398</v>
+        <v>4.047815999999999</v>
       </c>
       <c r="O2">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338741</v>
       </c>
       <c r="P2">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338742</v>
       </c>
       <c r="Q2">
-        <v>42.50768252152022</v>
+        <v>32.97741527844</v>
       </c>
       <c r="R2">
-        <v>382.569142693682</v>
+        <v>296.79673750596</v>
       </c>
       <c r="S2">
-        <v>0.002068965983663684</v>
+        <v>0.001438905613586041</v>
       </c>
       <c r="T2">
-        <v>0.002068965983663684</v>
+        <v>0.001438905613586041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H3">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I3">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J3">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>549.27501</v>
       </c>
       <c r="O3">
-        <v>0.8555757185143522</v>
+        <v>0.864099120973151</v>
       </c>
       <c r="P3">
-        <v>0.8555757185143523</v>
+        <v>0.8640991209731511</v>
       </c>
       <c r="Q3">
-        <v>2249.278663697177</v>
+        <v>4474.92428184465</v>
       </c>
       <c r="R3">
-        <v>20243.50797327459</v>
+        <v>40274.31853660185</v>
       </c>
       <c r="S3">
-        <v>0.1094785875615299</v>
+        <v>0.1952546497398915</v>
       </c>
       <c r="T3">
-        <v>0.1094785875615299</v>
+        <v>0.1952546497398915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H4">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I4">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J4">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>82.339214</v>
       </c>
       <c r="O4">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="P4">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="Q4">
-        <v>337.1787062291363</v>
+        <v>670.81469458551</v>
       </c>
       <c r="R4">
-        <v>3034.608356062226</v>
+        <v>6037.33225126959</v>
       </c>
       <c r="S4">
-        <v>0.01641141629517525</v>
+        <v>0.02926969932498471</v>
       </c>
       <c r="T4">
-        <v>0.01641141629517525</v>
+        <v>0.02926969932498472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>196.815372</v>
       </c>
       <c r="I5">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J5">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.460132666666667</v>
+        <v>1.349272</v>
       </c>
       <c r="N5">
-        <v>10.380398</v>
+        <v>4.047815999999999</v>
       </c>
       <c r="O5">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338741</v>
       </c>
       <c r="P5">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338742</v>
       </c>
       <c r="Q5">
-        <v>227.0024326531173</v>
+        <v>88.51915686972799</v>
       </c>
       <c r="R5">
-        <v>2043.021893878056</v>
+        <v>796.6724118275519</v>
       </c>
       <c r="S5">
-        <v>0.0110488336109698</v>
+        <v>0.00386236188173994</v>
       </c>
       <c r="T5">
-        <v>0.0110488336109698</v>
+        <v>0.00386236188173994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>196.815372</v>
       </c>
       <c r="I6">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J6">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>549.27501</v>
       </c>
       <c r="O6">
-        <v>0.8555757185143522</v>
+        <v>0.864099120973151</v>
       </c>
       <c r="P6">
-        <v>0.8555757185143523</v>
+        <v>0.8640991209731511</v>
       </c>
       <c r="Q6">
         <v>12011.75171371708</v>
@@ -818,10 +818,10 @@
         <v>108105.7654234537</v>
       </c>
       <c r="S6">
-        <v>0.5846450388659251</v>
+        <v>0.5241095102189242</v>
       </c>
       <c r="T6">
-        <v>0.5846450388659252</v>
+        <v>0.524109510218924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>196.815372</v>
       </c>
       <c r="I7">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J7">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>82.339214</v>
       </c>
       <c r="O7">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="P7">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="Q7">
         <v>1800.624781510845</v>
@@ -880,10 +880,10 @@
         <v>16205.62303359761</v>
       </c>
       <c r="S7">
-        <v>0.08764136742579956</v>
+        <v>0.07856677317497328</v>
       </c>
       <c r="T7">
-        <v>0.08764136742579957</v>
+        <v>0.07856677317497328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>54.351361</v>
       </c>
       <c r="I8">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J8">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.460132666666667</v>
+        <v>1.349272</v>
       </c>
       <c r="N8">
-        <v>10.380398</v>
+        <v>4.047815999999999</v>
       </c>
       <c r="O8">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338741</v>
       </c>
       <c r="P8">
-        <v>0.01616897968344663</v>
+        <v>0.006367874350338742</v>
       </c>
       <c r="Q8">
-        <v>62.68763989129755</v>
+        <v>24.44492318639733</v>
       </c>
       <c r="R8">
-        <v>564.1887590216779</v>
+        <v>220.0043086775759</v>
       </c>
       <c r="S8">
-        <v>0.003051180088813149</v>
+        <v>0.001066606855012762</v>
       </c>
       <c r="T8">
-        <v>0.003051180088813149</v>
+        <v>0.001066606855012762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>54.351361</v>
       </c>
       <c r="I9">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J9">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>549.27501</v>
       </c>
       <c r="O9">
-        <v>0.8555757185143522</v>
+        <v>0.864099120973151</v>
       </c>
       <c r="P9">
-        <v>0.8555757185143523</v>
+        <v>0.8640991209731511</v>
       </c>
       <c r="Q9">
         <v>3317.093817420956</v>
@@ -1004,10 +1004,10 @@
         <v>29853.84435678861</v>
       </c>
       <c r="S9">
-        <v>0.1614520920868972</v>
+        <v>0.1447349610143354</v>
       </c>
       <c r="T9">
-        <v>0.1614520920868972</v>
+        <v>0.1447349610143355</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>54.351361</v>
       </c>
       <c r="I10">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J10">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>82.339214</v>
       </c>
       <c r="O10">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="P10">
-        <v>0.1282553018022011</v>
+        <v>0.1295330046765102</v>
       </c>
       <c r="Q10">
         <v>497.2498160633615</v>
@@ -1066,10 +1066,10 @@
         <v>4475.248344570254</v>
       </c>
       <c r="S10">
-        <v>0.02420251808122626</v>
+        <v>0.02169653217655218</v>
       </c>
       <c r="T10">
-        <v>0.02420251808122626</v>
+        <v>0.02169653217655219</v>
       </c>
     </row>
   </sheetData>
